--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -257,10 +257,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -99,34 +99,34 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>4801000202104</t>
+  </si>
+  <si>
+    <t>Liggende</t>
+  </si>
+  <si>
+    <t>414585002</t>
+  </si>
+  <si>
+    <t>Liggende lent mot venstre</t>
+  </si>
+  <si>
+    <t>33586001</t>
+  </si>
+  <si>
+    <t>Sittende</t>
+  </si>
+  <si>
     <t>10904000</t>
   </si>
   <si>
     <t>Stående</t>
   </si>
   <si>
-    <t>4801000202104</t>
-  </si>
-  <si>
-    <t>Liggende</t>
-  </si>
-  <si>
-    <t>33586001</t>
-  </si>
-  <si>
-    <t>Sittende</t>
-  </si>
-  <si>
     <t>272580008</t>
   </si>
   <si>
     <t>Tilbakelent</t>
-  </si>
-  <si>
-    <t>414585002</t>
-  </si>
-  <si>
-    <t>Liggende lent mot venstre</t>
   </si>
   <si>
     <t/>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,10 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Project team</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://hl7.org/fhir)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,18 +106,6 @@
   </si>
   <si>
     <t>Liggende lent mot venstre</t>
-  </si>
-  <si>
-    <t>33586001</t>
-  </si>
-  <si>
-    <t>Sittende</t>
-  </si>
-  <si>
-    <t>10904000</t>
-  </si>
-  <si>
-    <t>Stående</t>
   </si>
   <si>
     <t>272580008</t>
@@ -347,52 +332,50 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -402,7 +385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,66 +397,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.7</t>
+    <t>0.7.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,10 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/fhir)</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -332,50 +335,52 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -397,50 +402,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -373,14 +376,16 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -402,7 +407,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -410,42 +415,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>10904000</t>
+  </si>
+  <si>
+    <t>oppreist stilling</t>
+  </si>
+  <si>
+    <t>33586001</t>
+  </si>
+  <si>
+    <t>Sittende</t>
   </si>
   <si>
     <t>4801000202104</t>
@@ -395,7 +407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,15 +454,31 @@
         <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-03-17T00:00:00+00:00</t>
+    <t>2025-02-20T13:41:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,6 +102,24 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>4801000202104</t>
+  </si>
+  <si>
+    <t>Liggende</t>
+  </si>
+  <si>
+    <t>414585002</t>
+  </si>
+  <si>
+    <t>Liggende lent mot venstre</t>
+  </si>
+  <si>
+    <t>272580008</t>
+  </si>
+  <si>
+    <t>Tilbakelent</t>
+  </si>
+  <si>
     <t>10904000</t>
   </si>
   <si>
@@ -112,24 +130,6 @@
   </si>
   <si>
     <t>Sittende</t>
-  </si>
-  <si>
-    <t>4801000202104</t>
-  </si>
-  <si>
-    <t>Liggende</t>
-  </si>
-  <si>
-    <t>414585002</t>
-  </si>
-  <si>
-    <t>Liggende lent mot venstre</t>
-  </si>
-  <si>
-    <t>272580008</t>
-  </si>
-  <si>
-    <t>Tilbakelent</t>
   </si>
   <si>
     <t/>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-20T13:41:55+00:00</t>
+    <t>2025-02-26T13:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T13:21:21+00:00</t>
+    <t>2025-03-21T10:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:35:33+00:00</t>
+    <t>2025-03-21T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:58:46+00:00</t>
+    <t>2025-03-21T11:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:15:59+00:00</t>
+    <t>2025-03-21T11:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:26:13+00:00</t>
+    <t>2025-03-24T06:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T06:22:27+00:00</t>
+    <t>2025-03-24T09:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:01:33+00:00</t>
+    <t>2025-03-24T11:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T11:46:28+00:00</t>
+    <t>2025-03-25T12:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,6 +100,21 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>Concept</t>
   </si>
   <si>
@@ -132,13 +148,7 @@
     <t>Sittende</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://snomed.info/sct/51000202101</t>
   </si>
 </sst>
 </file>
@@ -407,6 +417,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -419,7 +472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -427,58 +480,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:40:24+00:00</t>
+    <t>2025-03-25T12:51:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,7 +112,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://snomed.info/sct/51000202101</t>
   </si>
   <si>
     <t>Concept</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Sittende</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/51000202101</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:51:17+00:00</t>
+    <t>2025-03-26T06:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,40 +112,43 @@
     <t>System URI</t>
   </si>
   <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>4801000202104</t>
+  </si>
+  <si>
+    <t>Liggende</t>
+  </si>
+  <si>
+    <t>414585002</t>
+  </si>
+  <si>
+    <t>Liggende lent mot venstre</t>
+  </si>
+  <si>
+    <t>272580008</t>
+  </si>
+  <si>
+    <t>Tilbakelent</t>
+  </si>
+  <si>
+    <t>10904000</t>
+  </si>
+  <si>
+    <t>oppreist stilling</t>
+  </si>
+  <si>
+    <t>33586001</t>
+  </si>
+  <si>
+    <t>Sittende</t>
+  </si>
+  <si>
     <t>http://snomed.info/sct/51000202101</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>4801000202104</t>
-  </si>
-  <si>
-    <t>Liggende</t>
-  </si>
-  <si>
-    <t>414585002</t>
-  </si>
-  <si>
-    <t>Liggende lent mot venstre</t>
-  </si>
-  <si>
-    <t>272580008</t>
-  </si>
-  <si>
-    <t>Tilbakelent</t>
-  </si>
-  <si>
-    <t>10904000</t>
-  </si>
-  <si>
-    <t>oppreist stilling</t>
-  </si>
-  <si>
-    <t>33586001</t>
-  </si>
-  <si>
-    <t>Sittende</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:16:28+00:00</t>
+    <t>2025-03-26T06:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:25:27+00:00</t>
+    <t>2025-03-26T07:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Sittende</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct/51000202101</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationBloodpressureBodyPosition.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T07:23:44+00:00</t>
+    <t>2025-05-13T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
